--- a/(1분반)2012136068_송승하_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2012136068_송승하_마이크로프로세서_재료구매신청서.xlsx
@@ -98,9 +98,6 @@
     <t>SBH-9V</t>
   </si>
   <si>
-    <t>ADXL345</t>
-  </si>
-  <si>
     <t>DG-53N RGB 262C-A9001</t>
   </si>
   <si>
@@ -132,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://eleparts.co.kr/EPXDT7NJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.devicemart.co.kr/1076924</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +142,14 @@
   </si>
   <si>
     <t>G-RC카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/goods/view.php?seq=1076851</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +207,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -291,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +308,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -310,13 +328,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,50 +401,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>269860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1955753</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10639425" y="14338285"/>
-          <a:ext cx="1323975" cy="1685893"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>426227</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
@@ -448,7 +419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -492,7 +463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -536,7 +507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -580,7 +551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -624,7 +595,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -668,7 +639,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -712,7 +683,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -734,6 +705,50 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3562350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1971675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="14735175"/>
+          <a:ext cx="3371850" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1003,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1020,66 +1035,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>2012136068</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1121,8 +1136,8 @@
         <f>C7*D7</f>
         <v>41500</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1143,8 +1158,8 @@
         <f t="shared" ref="E8:E15" si="0">C8*D8</f>
         <v>19360</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>25</v>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1153,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>8400</v>
@@ -1165,8 +1180,8 @@
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1187,8 +1202,8 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1209,8 +1224,8 @@
         <f t="shared" si="0"/>
         <v>3120</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>28</v>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1218,21 +1233,21 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="2">
-        <v>7800</v>
+        <v>1300</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>7800</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>5200</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1241,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>1900</v>
@@ -1253,8 +1268,8 @@
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>31</v>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1263,20 +1278,20 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>722</v>
+        <v>7220</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <f>C14*D14</f>
-        <v>722</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
+        <v>7220</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1285,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>1000</v>
@@ -1297,8 +1312,8 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>32</v>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1308,7 +1323,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1320,9 +1335,9 @@
       </c>
       <c r="E17" s="1">
         <f>SUM(E7:E15)</f>
-        <v>90502</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>94400</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="2"/>
     </row>
   </sheetData>
@@ -1346,6 +1361,7 @@
     <hyperlink ref="F15" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/(1분반)2012136068_송승하_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2012136068_송승하_마이크로프로세서_재료구매신청서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>http://www.devicemart.co.kr/goods/view.php?seq=1076851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper Deck for miniQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/icbanq/products/371749747</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,6 +327,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,12 +340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,6 +750,50 @@
         <a:xfrm>
           <a:off x="10591800" y="14735175"/>
           <a:ext cx="3371850" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2594709</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2435678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11212286" y="23676429"/>
+          <a:ext cx="1778280" cy="2354035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1035,66 +1087,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>2012136068</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1155,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E15" si="0">C8*D8</f>
+        <f t="shared" ref="E8:E16" si="0">C8*D8</f>
         <v>19360</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1233,7 +1285,7 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2">
@@ -1246,7 +1298,7 @@
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="2"/>
@@ -1317,13 +1369,26 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
+    <row r="16" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4990</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>4990</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1334,8 +1399,8 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <f>SUM(E7:E15)</f>
-        <v>94400</v>
+        <f>SUM(E7:E16)</f>
+        <v>99390</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2"/>
@@ -1359,9 +1424,10 @@
     <hyperlink ref="F14" r:id="rId7"/>
     <hyperlink ref="F13" r:id="rId8"/>
     <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/(1분반)2012136068_송승하_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2012136068_송승하_마이크로프로세서_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,34 +89,22 @@
     <t xml:space="preserve">2WD miniQ  </t>
   </si>
   <si>
-    <t>HC-06</t>
-  </si>
-  <si>
     <t>브레드 보드 미니</t>
   </si>
   <si>
     <t>SBH-9V</t>
   </si>
   <si>
-    <t>DG-53N RGB 262C-A9001</t>
-  </si>
-  <si>
     <t>DRV8835</t>
   </si>
   <si>
     <t>9V 건전지</t>
   </si>
   <si>
-    <t>조이스틱 쉴드</t>
-  </si>
-  <si>
     <t>http://toolparts.co.kr/front/php/product.php?product_no=68433&amp;main_cate_no=&amp;display_group=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=71794&amp;category=054001</t>
-  </si>
-  <si>
     <t>http://www.devicemart.co.kr/1170520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,35 +117,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.devicemart.co.kr/1076924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://eleparts.co.kr/EPX68J6Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.devicemart.co.kr/6224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G-RC카</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HC-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view.php?seq=1076851</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Upper Deck for miniQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://storefarm.naver.com/icbanq/products/371749747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1322394</t>
+  </si>
+  <si>
+    <t>M3 서포트 20mm female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3 서포트 20mm male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1322398</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*6 접시머리 나사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/34266</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모터를 2개만 사용해서 이걸로 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 브래드보드 크기가 너무커서 이걸로 사용합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,15 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -209,7 +206,7 @@
     </font>
     <font>
       <u/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -217,12 +214,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF444444"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,19 +334,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -366,13 +385,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2219325</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1752600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -410,13 +429,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>426227</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2209801</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2769349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -453,50 +472,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>433351</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2185642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10834651" y="5305425"/>
-          <a:ext cx="1376399" cy="1985617"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>316650</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>105510</xdr:rowOff>
@@ -515,7 +490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -542,13 +517,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504750</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>155501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1810019</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1611576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -559,7 +534,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -586,13 +561,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>464250</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>129554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2373997</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2081690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -603,7 +578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -630,14 +605,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299926</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>244531</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2676526</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2352582</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -647,7 +622,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -670,22 +645,66 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>468976</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>37084</xdr:rowOff>
+      <xdr:colOff>938893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2063202</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1593100</xdr:rowOff>
+      <xdr:colOff>2717173</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2449285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="29064857"/>
+          <a:ext cx="1778280" cy="2354035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394605</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3388177</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2137683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -704,32 +723,61 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10870276" y="19258534"/>
-          <a:ext cx="1594226" cy="1556016"/>
+          <a:off x="10790462" y="23798894"/>
+          <a:ext cx="2993572" cy="1933575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="190500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="41000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="6350">
+          <a:bevelT w="50800" h="16510"/>
+          <a:contourClr>
+            <a:srgbClr val="C0C0C0"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>435429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3562350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1971675</xdr:rowOff>
+      <xdr:colOff>3388180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2369004</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPr id="15" name="그림 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -748,12 +796,41 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10591800" y="14735175"/>
-          <a:ext cx="3371850" cy="1847850"/>
+          <a:off x="10790465" y="26493108"/>
+          <a:ext cx="2993572" cy="1933575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="190500" cap="rnd">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="41000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7800000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="6350">
+          <a:bevelT w="50800" h="16510"/>
+          <a:contourClr>
+            <a:srgbClr val="C0C0C0"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -761,19 +838,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2594709</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2435678</xdr:rowOff>
+      <xdr:colOff>3333751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2225096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="16" name="그림 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -792,8 +869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11212286" y="23676429"/>
-          <a:ext cx="1778280" cy="2354035"/>
+          <a:off x="10722429" y="31514143"/>
+          <a:ext cx="3007179" cy="2197882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,74 +1158,75 @@
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="66.75" customWidth="1"/>
     <col min="7" max="7" width="46.875" customWidth="1"/>
+    <col min="8" max="9" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>2012136068</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,8 +1248,11 @@
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1188,56 +1269,62 @@
         <f>C7*D7</f>
         <v>41500</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>4840</v>
+        <v>8400</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ref="E8:E16" si="0">C8*D8</f>
-        <v>19360</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
+        <f t="shared" ref="E8:E15" si="0">C8*D8</f>
+        <v>8400</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>8400</v>
+        <v>900</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>8400</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>1800</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1245,166 +1332,147 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>900</v>
+        <v>1560</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>3120</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>1560</v>
+        <v>1900</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>3120</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>3800</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="2">
-        <v>1300</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>5200</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>880</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="256.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>1900</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>880</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>7220</v>
+        <v>4990</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f>C14*D14</f>
-        <v>7220</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>4990</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="198" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4990</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>4990</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
+    <row r="16" spans="1:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E7:E15)</f>
+        <v>65530</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <f>SUM(E7:E16)</f>
-        <v>99390</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-    </row>
+    <row r="17" ht="228.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="198" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="177.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:G5"/>
@@ -1416,18 +1484,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="F11" r:id="rId5"/>
-    <hyperlink ref="F12" r:id="rId6"/>
-    <hyperlink ref="F14" r:id="rId7"/>
-    <hyperlink ref="F13" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F16" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>